--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -493,34 +493,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=1,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=1,
                                                                     max_features='sqrt',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=5,
+                                                                    min_samples_leaf=3,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7527272727272727</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -532,120 +528,117 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8718547545974585</v>
+        <v>0.8626428571428572</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0192722918717855</v>
+        <v>0.02324063327676608</v>
       </c>
       <c r="J2" t="n">
-        <v>0.653378380022237</v>
+        <v>0.569047619047619</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07341091729648923</v>
+        <v>0.0691453109814083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', 'passthrough'),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=1,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    max_depth=6,
                                                                     max_features='log2',
+                                                                    min_samples_leaf=5,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7441386051842114</v>
+        <v>0.6285714285714287</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 1 0 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8754279368739567</v>
+        <v>0.8356190476190476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02168541315744216</v>
+        <v>0.02432303225698967</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6327466409220599</v>
+        <v>0.5485714285714285</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07350535466405601</v>
+        <v>0.06199233572023411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
                 ('model',
                  BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=1,
+                                                                    max_depth=5,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=5,
-                                                                    min_samples_split=5,
+                                                                    min_samples_leaf=3,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7565792679697018</v>
+        <v>0.5809523809523809</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8641429562216628</v>
+        <v>0.8550476190476191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02603431309562253</v>
+        <v>0.02805800153413196</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6053430416888023</v>
+        <v>0.5033333333333334</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1176581374531949</v>
+        <v>0.08857182129619702</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,127 +493,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6421e250&gt;),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=1,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=5,
                                                                     max_features='sqrt',
-                                                                    min_samples_leaf=3,
-                                                                    min_samples_split=4,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a5c78c340&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[0 0 1 0 0 1 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8626428571428572</v>
+        <v>0.8387582881253767</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02324063327676608</v>
+        <v>0.02611026980688669</v>
       </c>
       <c r="J2" t="n">
-        <v>0.569047619047619</v>
+        <v>0.5780590717299577</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0691453109814083</v>
+        <v>0.06679224815257635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64669400&gt;),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
-                                                                    max_depth=6,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=4,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=5,
-                                                                    min_samples_split=4,
+                                                                    min_samples_leaf=4,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6285714285714287</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9c6ad00&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 1 1 0 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8356190476190476</v>
+        <v>0.837092731829574</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02432303225698967</v>
+        <v>0.02737973134630577</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5485714285714285</v>
+        <v>0.5185463659147869</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06199233572023411</v>
+        <v>0.08552962744456431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a646692e0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=5,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=3,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=5,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5809523809523809</v>
+        <v>0.6095238095238095</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9c6aa60&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,23 +626,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8550476190476191</v>
+        <v>0.8395833333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02805800153413196</v>
+        <v>0.02733684835345362</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5033333333333334</v>
+        <v>0.5041005291005292</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08857182129619702</v>
+        <v>0.08684466418134143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0fd0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
+                                                                    max_features='sqrt',
+                                                                    min_samples_split=3,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6476190476190475</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e4c0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 1 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8398001175778953</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02455359392544976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5243974132863022</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07578724510946509</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64669a90&gt;),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=6,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=3,
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e040&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8331863609641388</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02723023566380105</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5334509112286889</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08353027919085367</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,80 +493,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6421e250&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=5,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
                                                                     max_features='sqrt',
-                                                                    min_samples_split=6,
+                                                                    min_samples_leaf=3,
+                                                                    min_samples_split=5,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6732988580047403</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a5c78c340&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 1 1 1 1 0 0]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8387582881253767</v>
+        <v>0.8707646786679418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02611026980688669</v>
+        <v>0.02378874582956627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5780590717299577</v>
+        <v>0.5363402506643683</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06679224815257635</v>
+        <v>0.1495535385295421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64669400&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=4,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=4,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=1,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.713412420912421</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9c6ad00&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -575,177 +579,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 0 1 1 1 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.837092731829574</v>
+        <v>0.862617222308854</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02737973134630577</v>
+        <v>0.02233803343754223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5185463659147869</v>
+        <v>0.6233818236012353</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08552962744456431</v>
+        <v>0.1092951951375162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a646692e0&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
-                                                                    max_features='sqrt',
-                                                                    min_samples_leaf=5,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=1,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6095238095238095</v>
+        <v>0.7145098039215686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9c6aa60&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8395833333333333</v>
+        <v>0.851090144147207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02733684835345362</v>
+        <v>0.026992935371654</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5041005291005292</v>
+        <v>0.6166147611865258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08684466418134143</v>
+        <v>0.1216078285726884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0fd0&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
-                                                                    max_features='sqrt',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=1,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=2,
                                                                     min_samples_split=3,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6476190476190475</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e4c0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 1 1 1 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8398001175778953</v>
+        <v>0.8681517339667728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02455359392544976</v>
+        <v>0.02403911442457667</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5243974132863022</v>
+        <v>0.6318109958668783</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07578724510946509</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64669a90&gt;),
-                ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=6,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=3,
-                                                                    random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e040&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8331863609641388</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02723023566380105</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5334509112286889</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08353027919085367</v>
+        <v>0.1285808552636603</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -494,24 +494,23 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=1,
                                                                     max_features='sqrt',
-                                                                    min_samples_leaf=3,
-                                                                    min_samples_split=5,
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6732988580047403</v>
+        <v>0.6696266968325791</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -524,53 +523,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8707646786679418</v>
+        <v>0.8319604881314266</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02378874582956627</v>
+        <v>0.02812033012710329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5363402506643683</v>
+        <v>0.5065359610977257</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1495535385295421</v>
+        <v>0.1384243984303357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
                                                                     criterion='entropy',
                                                                     max_depth=1,
-                                                                    max_features='sqrt',
-                                                                    min_samples_leaf=2,
+                                                                    min_samples_leaf=6,
                                                                     min_samples_split=6,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.713412420912421</v>
+        <v>0.7249768368886016</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': None, 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -579,51 +575,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 1 0 1 1 1 0]</t>
+          <t>[0 0 0 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.862617222308854</v>
+        <v>0.8251475159617845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02233803343754223</v>
+        <v>0.03403574868529025</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6233818236012353</v>
+        <v>0.6429551498175028</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1092951951375162</v>
+        <v>0.1179955866028993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=1,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=4,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=2,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=3,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7145098039215686</v>
+        <v>0.7380494505494506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -632,49 +628,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
+          <t>[0 1 1 1 1 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.851090144147207</v>
+        <v>0.8298205206197684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.026992935371654</v>
+        <v>0.02939855730219668</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6166147611865258</v>
+        <v>0.6078983170424347</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1216078285726884</v>
+        <v>0.1278670651110609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=1,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=2,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=2,
-                                                                    min_samples_split=3,
+                                                                    min_samples_split=5,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7174768368886015</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -683,23 +680,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 0 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8681517339667728</v>
+        <v>0.8104996944284236</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02403911442457667</v>
+        <v>0.02704202896776954</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6318109958668783</v>
+        <v>0.623978951767187</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1285808552636603</v>
+        <v>0.1452569815811669</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -497,49 +517,61 @@
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=1,
-                                                                    max_features='sqrt',
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=4,
+                                                                    max_depth=5,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=5,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6696266968325791</v>
+        <v>0.7366666666666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 0 0 1]</t>
-        </is>
+        <v>0.8042932842433356</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4381470307470308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7307692307692307</v>
       </c>
       <c r="G2" t="n">
+        <v>0.8870676688220692</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5384761904761906</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7392000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.39232</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8319604881314266</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02812033012710329</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5065359610977257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1384243984303357</v>
       </c>
     </row>
     <row r="3">
@@ -548,50 +580,61 @@
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
-                                                                    criterion='entropy',
-                                                                    max_depth=1,
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=6,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=4,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=5,
+                                                                    min_samples_split=5,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7249768368886016</v>
+        <v>0.7238095238095237</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': None, 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 1 0 1 0 1 0 1]</t>
-        </is>
+        <v>0.8281337896127793</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4832444488844488</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6382978723404256</v>
       </c>
       <c r="G3" t="n">
+        <v>0.8956605459035781</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5506599999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7738100000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.46872</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8251475159617845</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03403574868529025</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6429551498175028</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1179955866028993</v>
       </c>
     </row>
     <row r="4">
@@ -603,48 +646,58 @@
                  BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
                                                                     criterion='entropy',
                                                                     max_depth=2,
-                                                                    max_features='sqrt',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=3,
+                                                                    min_samples_leaf=3,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7380494505494506</v>
+        <v>0.6221428571428571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': None, 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
+        <v>0.8608482332958938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5340914774114774</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6274509803921569</v>
       </c>
       <c r="G4" t="n">
+        <v>0.8421631503872792</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5173022222222222</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8870842105263158</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.57896</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8298205206197684</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02939855730219668</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6078983170424347</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1278670651110609</v>
       </c>
     </row>
     <row r="5">
@@ -654,49 +707,122 @@
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
-                                                                    criterion='entropy',
-                                                                    max_depth=2,
+                                                                    max_depth=6,
                                                                     max_features='log2',
-                                                                    min_samples_split=5,
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7174768368886015</v>
+        <v>0.7016666666666667</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.8007655300297267</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4523190342990343</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5263157894736842</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8844170814131247</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5168366666666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.8104996944284236</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02704202896776954</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.623978951767187</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1452569815811669</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=4,
+                                                                    max_features='log2',
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7566666666666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8106785276542967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5142481385281384</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9054163495814522</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5798438095238095</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7370363636363636</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.49992</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -517,57 +517,57 @@
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=5,
+                                                                    max_depth=1,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=5,
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7366666666666666</v>
+        <v>0.6624125874125874</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8042932842433356</v>
+        <v>0.8363875998491985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4381470307470308</v>
+        <v>0.5519551825951826</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8870676688220692</v>
+        <v>0.830103708709846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5384761904761906</v>
+        <v>0.5407114285714285</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7392000000000001</v>
+        <v>0.8514638297872341</v>
       </c>
       <c r="K2" t="n">
-        <v>0.39232</v>
+        <v>0.5815999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8125</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -580,57 +580,56 @@
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=4,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=5,
-                                                                    min_samples_split=5,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7238095238095237</v>
+        <v>0.6773792873792874</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': None, 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8281337896127793</v>
+        <v>0.8336950316288733</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4832444488844488</v>
+        <v>0.5566885292485292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8956605459035781</v>
+        <v>0.8369876578821434</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5506599999999999</v>
+        <v>0.6287603174603175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7738100000000001</v>
+        <v>0.8393957446808511</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46872</v>
+        <v>0.5306666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1]</t>
+          <t>[1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -639,6 +638,70 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                                                                    max_depth=3,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=3,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6870707070707069</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.840318218038155</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5913255033855035</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8252008571692298</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5709019047619047</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8650933333333333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6429600000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
@@ -646,179 +709,119 @@
                  BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
                                                                     criterion='entropy',
                                                                     max_depth=2,
-                                                                    min_samples_leaf=3,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6221428571428571</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': None, 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8608482332958938</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5340914774114774</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8421631503872792</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5173022222222222</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8870842105263158</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.57896</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
+      <c r="B5" t="n">
+        <v>0.7553829503829503</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8199501825860652</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5814955488955489</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.742857142857143</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8452878182763647</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6107530158730158</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8041387755102041</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5838</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
-                                                                    max_depth=6,
+                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=1,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=2,
+                                                                    min_samples_leaf=4,
                                                                     min_samples_split=4,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7016666666666667</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 6, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8007655300297267</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4523190342990343</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8844170814131247</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5168366666666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=4,
-                                                                    max_features='log2',
-                                                                    random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7566666666666666</v>
+        <v>0.6970207570207571</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8106785276542967</v>
+        <v>0.8153277960683615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5142481385281384</v>
+        <v>0.5607280031080031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.55</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9054163495814522</v>
+        <v>0.9074661436584932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5798438095238095</v>
+        <v>0.6279255555555555</v>
       </c>
       <c r="I6" t="n">
-        <v>0.55</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7370363636363636</v>
+        <v>0.7433999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.49992</v>
+        <v>0.5282666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 0 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/BaggingClassifier_DecisionTreeClassifier.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier.xlsx
@@ -516,46 +516,47 @@
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
                                                                     max_depth=1,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=2,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=4,
                                                                     min_samples_split=6,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6624125874125874</v>
+        <v>0.6452147852147851</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8363875998491985</v>
+        <v>0.830674648951034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5519551825951826</v>
+        <v>0.5442775280275279</v>
       </c>
       <c r="F2" t="n">
         <v>0.742857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.830103708709846</v>
+        <v>0.8403420944307578</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5407114285714285</v>
+        <v>0.5508154761904762</v>
       </c>
       <c r="I2" t="n">
         <v>0.6842105263157895</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8514638297872341</v>
+        <v>0.8325531914893618</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5815999999999999</v>
+        <v>0.5583333333333335</v>
       </c>
       <c r="L2" t="n">
         <v>0.8125</v>
@@ -576,132 +577,6 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=2,
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=6,
-                                                                    random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6773792873792874</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': None, 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8336950316288733</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5566885292485292</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8369876578821434</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6287603174603175</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8393957446808511</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5306666666666667</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(criterion='entropy',
-                                                                    max_depth=3,
-                                                                    max_features='sqrt',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=3,
-                                                                    random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6870707070707069</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.840318218038155</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5913255033855035</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8252008571692298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5709019047619047</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8650933333333333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6429600000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
@@ -709,47 +584,177 @@
                  BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
                                                                     criterion='entropy',
                                                                     max_depth=2,
-                                                                    max_features='log2',
+                                                                    max_features='sqrt',
                                                                     min_samples_leaf=4,
                                                                     min_samples_split=6,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.6304295704295704</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100822248624148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.536361777111777</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8399613600472022</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6584285714285714</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4858333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=2,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=6,
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6724708624708624</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8237827983682544</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6012970640470641</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8354723602136482</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6038670634920635</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8245555555555555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6289999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=1,
+                                                                    max_features='sqrt',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=6,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
       <c r="B5" t="n">
-        <v>0.7553829503829503</v>
+        <v>0.6223748473748474</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8199501825860652</v>
+        <v>0.8211886316546199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5814955488955489</v>
+        <v>0.5393069985569985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.742857142857143</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8452878182763647</v>
+        <v>0.8583036109560018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6107530158730158</v>
+        <v>0.5832003968253968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8041387755102041</v>
+        <v>0.7964285714285713</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5838</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -758,7 +763,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -771,48 +776,50 @@
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 BaggingClassifier(estimator=DecisionTreeClassifier(max_depth=1,
-                                                                    max_features='log2',
+                 BaggingClassifier(estimator=DecisionTreeClassifier(class_weight='balanced',
+                                                                    criterion='entropy',
+                                                                    max_depth=1,
+                                                                    max_features='sqrt',
                                                                     min_samples_leaf=4,
-                                                                    min_samples_split=4,
+                                                                    min_samples_split=6,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=200, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6970207570207571</v>
+        <v>0.6349494949494948</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'gini', 'model__estimator__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__criterion': 'entropy', 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8153277960683615</v>
+        <v>0.8107816526140612</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5607280031080031</v>
+        <v>0.5848952713952714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9074661436584932</v>
+        <v>0.8924376331610654</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6279255555555555</v>
+        <v>0.6626488095238094</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7433999999999999</v>
+        <v>0.7451923076923078</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5282666666666667</v>
+        <v>0.5425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -821,7 +828,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
